--- a/APM files/127134576 parent RA case/Expedia Reconnection Request per May 13, 2024.xlsx
+++ b/APM files/127134576 parent RA case/Expedia Reconnection Request per May 13, 2024.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\127134576 parent RA case\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317E2889-3CFE-4181-80D7-68084BA23701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="16320" yWindow="5445" windowWidth="21510" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Product Info" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Cleaning Fee" sheetId="2" r:id="rId4"/>
+    <sheet name="Product Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Cleaning Fee" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -224,27 +233,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -253,7 +264,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -263,7 +274,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -277,89 +294,403 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.75"/>
-    <col customWidth="1" min="2" max="2" width="10.38"/>
-    <col customWidth="1" min="3" max="3" width="13.0"/>
-    <col customWidth="1" min="4" max="4" width="12.38"/>
-    <col customWidth="1" min="5" max="5" width="13.13"/>
-    <col customWidth="1" min="6" max="6" width="45.38"/>
-    <col customWidth="1" min="7" max="7" width="10.88"/>
-    <col customWidth="1" min="8" max="8" width="12.38"/>
-    <col customWidth="1" min="9" max="9" width="9.13"/>
-    <col customWidth="1" min="10" max="10" width="10.75"/>
-    <col customWidth="1" min="11" max="11" width="12.0"/>
-    <col customWidth="1" min="12" max="12" width="13.63"/>
-    <col customWidth="1" min="13" max="13" width="7.75"/>
-    <col customWidth="1" min="14" max="14" width="12.63"/>
-    <col customWidth="1" min="15" max="15" width="11.63"/>
-    <col customWidth="1" min="16" max="16" width="21.25"/>
-    <col customWidth="1" min="17" max="17" width="12.25"/>
-    <col customWidth="1" min="18" max="18" width="11.63"/>
-    <col customWidth="1" min="19" max="19" width="11.75"/>
-    <col customWidth="1" min="20" max="20" width="12.5"/>
-    <col customWidth="1" min="21" max="21" width="19.0"/>
-    <col customWidth="1" min="22" max="22" width="11.5"/>
-    <col customWidth="1" min="23" max="23" width="15.0"/>
-    <col customWidth="1" min="24" max="24" width="17.13"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
+    <row r="1" spans="1:24" ht="36" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,15 +764,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" ht="15">
       <c r="A2" s="3">
-        <v>1.5459557E7</v>
+        <v>15459557</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3">
-        <v>45720.0</v>
+        <v>45720</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>25</v>
@@ -456,19 +787,19 @@
         <v>28</v>
       </c>
       <c r="H2" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>26</v>
@@ -477,7 +808,7 @@
         <v>29</v>
       </c>
       <c r="O2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>30</v>
@@ -495,7 +826,7 @@
         <v>33</v>
       </c>
       <c r="U2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>34</v>
@@ -507,15 +838,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" ht="15">
       <c r="A3" s="3">
-        <v>1.5690142E7</v>
+        <v>15690142</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="3">
-        <v>65884.0</v>
+        <v>65884</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>25</v>
@@ -530,19 +861,19 @@
         <v>28</v>
       </c>
       <c r="H3" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I3" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K3" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>26</v>
@@ -551,7 +882,7 @@
         <v>29</v>
       </c>
       <c r="O3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>30</v>
@@ -569,10 +900,10 @@
         <v>33</v>
       </c>
       <c r="U3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V3" s="3">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>35</v>
@@ -581,15 +912,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="15">
       <c r="A4" s="3">
-        <v>1.5690558E7</v>
+        <v>15690558</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="3">
-        <v>72886.0</v>
+        <v>72886</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>25</v>
@@ -604,19 +935,19 @@
         <v>28</v>
       </c>
       <c r="H4" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="I4" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K4" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>26</v>
@@ -625,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="O4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>30</v>
@@ -643,7 +974,7 @@
         <v>33</v>
       </c>
       <c r="U4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>34</v>
@@ -655,15 +986,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="15">
       <c r="A5" s="3">
-        <v>1.9706429E7</v>
+        <v>19706429</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3">
-        <v>137990.0</v>
+        <v>137990</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>25</v>
@@ -678,19 +1009,19 @@
         <v>28</v>
       </c>
       <c r="H5" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="J5" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="K5" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>26</v>
@@ -699,7 +1030,7 @@
         <v>29</v>
       </c>
       <c r="O5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>30</v>
@@ -717,10 +1048,10 @@
         <v>33</v>
       </c>
       <c r="U5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V5" s="3">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>35</v>
@@ -729,15 +1060,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="15">
       <c r="A6" s="3">
-        <v>1.9507427E7</v>
+        <v>19507427</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3">
-        <v>146017.0</v>
+        <v>146017</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>25</v>
@@ -752,19 +1083,19 @@
         <v>28</v>
       </c>
       <c r="H6" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="I6" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="J6" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K6" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>26</v>
@@ -773,7 +1104,7 @@
         <v>39</v>
       </c>
       <c r="O6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>30</v>
@@ -791,10 +1122,10 @@
         <v>33</v>
       </c>
       <c r="U6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V6" s="3">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>35</v>
@@ -803,15 +1134,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="15">
       <c r="A7" s="3">
-        <v>1.9824319E7</v>
+        <v>19824319</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3">
-        <v>152133.0</v>
+        <v>152133</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>25</v>
@@ -826,19 +1157,19 @@
         <v>28</v>
       </c>
       <c r="H7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>26</v>
@@ -847,7 +1178,7 @@
         <v>29</v>
       </c>
       <c r="O7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>30</v>
@@ -865,7 +1196,7 @@
         <v>33</v>
       </c>
       <c r="U7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>34</v>
@@ -877,15 +1208,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="15">
       <c r="A8" s="3">
-        <v>2.416279E7</v>
+        <v>24162790</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3">
-        <v>183329.0</v>
+        <v>183329</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>25</v>
@@ -900,19 +1231,19 @@
         <v>28</v>
       </c>
       <c r="H8" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J8" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K8" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>26</v>
@@ -921,7 +1252,7 @@
         <v>39</v>
       </c>
       <c r="O8" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>30</v>
@@ -939,10 +1270,10 @@
         <v>33</v>
       </c>
       <c r="U8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>35</v>
@@ -951,15 +1282,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="15">
       <c r="A9" s="3">
-        <v>2.4162799E7</v>
+        <v>24162799</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3">
-        <v>183335.0</v>
+        <v>183335</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>25</v>
@@ -974,19 +1305,19 @@
         <v>28</v>
       </c>
       <c r="H9" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I9" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K9" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>26</v>
@@ -995,7 +1326,7 @@
         <v>29</v>
       </c>
       <c r="O9" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>30</v>
@@ -1013,10 +1344,10 @@
         <v>33</v>
       </c>
       <c r="U9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>35</v>
@@ -1025,15 +1356,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="15">
       <c r="A10" s="3">
-        <v>2.4163178E7</v>
+        <v>24163178</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3">
-        <v>183374.0</v>
+        <v>183374</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
@@ -1048,19 +1379,19 @@
         <v>28</v>
       </c>
       <c r="H10" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>26</v>
@@ -1069,7 +1400,7 @@
         <v>29</v>
       </c>
       <c r="O10" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>30</v>
@@ -1087,10 +1418,10 @@
         <v>33</v>
       </c>
       <c r="U10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>35</v>
@@ -1099,15 +1430,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="15">
       <c r="A11" s="3">
-        <v>4.5762475E7</v>
+        <v>45762475</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3">
-        <v>259380.0</v>
+        <v>259380</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -1122,19 +1453,19 @@
         <v>28</v>
       </c>
       <c r="H11" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I11" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J11" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K11" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>26</v>
@@ -1143,7 +1474,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>30</v>
@@ -1161,10 +1492,10 @@
         <v>33</v>
       </c>
       <c r="U11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V11" s="3">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>35</v>
@@ -1173,15 +1504,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" ht="15">
       <c r="A12" s="3">
-        <v>8.9929261E7</v>
+        <v>89929261</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3">
-        <v>292306.0</v>
+        <v>292306</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
@@ -1196,19 +1527,19 @@
         <v>28</v>
       </c>
       <c r="H12" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I12" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K12" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>26</v>
@@ -1217,7 +1548,7 @@
         <v>48</v>
       </c>
       <c r="O12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>30</v>
@@ -1235,10 +1566,10 @@
         <v>33</v>
       </c>
       <c r="U12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
-        <v>1008.0</v>
+        <v>1008</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>35</v>
@@ -1247,15 +1578,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="15">
       <c r="A13" s="3">
-        <v>4.229188E7</v>
+        <v>42291880</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3">
-        <v>315121.0</v>
+        <v>315121</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
@@ -1270,19 +1601,19 @@
         <v>28</v>
       </c>
       <c r="H13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>26</v>
@@ -1291,7 +1622,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>30</v>
@@ -1309,10 +1640,10 @@
         <v>33</v>
       </c>
       <c r="U13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V13" s="3">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>35</v>
@@ -1321,15 +1652,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="15">
       <c r="A14" s="3">
-        <v>4.608827E7</v>
+        <v>46088270</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="3">
-        <v>335906.0</v>
+        <v>335906</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>25</v>
@@ -1344,19 +1675,19 @@
         <v>28</v>
       </c>
       <c r="H14" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>26</v>
@@ -1365,7 +1696,7 @@
         <v>39</v>
       </c>
       <c r="O14" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>30</v>
@@ -1383,7 +1714,7 @@
         <v>33</v>
       </c>
       <c r="U14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>34</v>
@@ -1395,15 +1726,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="15">
       <c r="A15" s="3">
-        <v>5.0681502E7</v>
+        <v>50681502</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="3">
-        <v>338158.0</v>
+        <v>338158</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>25</v>
@@ -1418,19 +1749,19 @@
         <v>28</v>
       </c>
       <c r="H15" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I15" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K15" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>26</v>
@@ -1439,7 +1770,7 @@
         <v>39</v>
       </c>
       <c r="O15" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>30</v>
@@ -1457,7 +1788,7 @@
         <v>33</v>
       </c>
       <c r="U15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>34</v>
@@ -1469,15 +1800,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="15">
       <c r="A16" s="3">
-        <v>5.3855651E7</v>
+        <v>53855651</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>454805.0</v>
+        <v>454805</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>25</v>
@@ -1492,19 +1823,19 @@
         <v>28</v>
       </c>
       <c r="H16" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="I16" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="J16" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K16" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>26</v>
@@ -1513,7 +1844,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>30</v>
@@ -1531,7 +1862,7 @@
         <v>33</v>
       </c>
       <c r="U16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V16" s="3" t="s">
         <v>34</v>
@@ -1543,15 +1874,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="15">
       <c r="A17" s="3">
-        <v>5.8985484E7</v>
+        <v>58985484</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="3">
-        <v>459350.0</v>
+        <v>459350</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>25</v>
@@ -1566,19 +1897,19 @@
         <v>28</v>
       </c>
       <c r="H17" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J17" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K17" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L17" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>26</v>
@@ -1587,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="O17" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>30</v>
@@ -1605,10 +1936,10 @@
         <v>33</v>
       </c>
       <c r="U17" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="W17" s="5" t="s">
         <v>35</v>
@@ -1617,15 +1948,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="15">
       <c r="A18" s="3">
-        <v>8.9929774E7</v>
+        <v>89929774</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3">
-        <v>460641.0</v>
+        <v>460641</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>25</v>
@@ -1640,19 +1971,19 @@
         <v>28</v>
       </c>
       <c r="H18" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I18" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J18" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K18" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L18" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>26</v>
@@ -1661,7 +1992,7 @@
         <v>48</v>
       </c>
       <c r="O18" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>30</v>
@@ -1679,10 +2010,10 @@
         <v>33</v>
       </c>
       <c r="U18" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>1008.0</v>
+        <v>1008</v>
       </c>
       <c r="W18" s="5" t="s">
         <v>35</v>
@@ -1691,15 +2022,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="15">
       <c r="A19" s="3">
-        <v>6.860372E7</v>
+        <v>68603720</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="3">
-        <v>465222.0</v>
+        <v>465222</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>25</v>
@@ -1714,19 +2045,19 @@
         <v>28</v>
       </c>
       <c r="H19" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I19" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J19" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L19" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>26</v>
@@ -1735,7 +2066,7 @@
         <v>48</v>
       </c>
       <c r="O19" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>30</v>
@@ -1753,10 +2084,10 @@
         <v>33</v>
       </c>
       <c r="U19" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V19" s="3">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="W19" s="5" t="s">
         <v>35</v>
@@ -1765,15 +2096,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="15">
       <c r="A20" s="3">
-        <v>7.2501222E7</v>
+        <v>72501222</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="3">
-        <v>468344.0</v>
+        <v>468344</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>25</v>
@@ -1788,19 +2119,19 @@
         <v>28</v>
       </c>
       <c r="H20" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="I20" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="J20" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="K20" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L20" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>26</v>
@@ -1809,7 +2140,7 @@
         <v>39</v>
       </c>
       <c r="O20" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>30</v>
@@ -1827,10 +2158,10 @@
         <v>33</v>
       </c>
       <c r="U20" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="W20" s="5" t="s">
         <v>35</v>
@@ -1839,15 +2170,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="15">
       <c r="A21" s="3">
-        <v>3.8942528E7</v>
+        <v>38942528</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="3">
-        <v>476190.0</v>
+        <v>476190</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>25</v>
@@ -1862,19 +2193,19 @@
         <v>28</v>
       </c>
       <c r="H21" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="I21" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J21" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K21" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L21" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>26</v>
@@ -1883,7 +2214,7 @@
         <v>58</v>
       </c>
       <c r="O21" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>30</v>
@@ -1901,10 +2232,10 @@
         <v>33</v>
       </c>
       <c r="U21" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="W21" s="5" t="s">
         <v>35</v>
@@ -1913,15 +2244,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="15">
       <c r="A22" s="3">
-        <v>8.9441822E7</v>
+        <v>89441822</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3">
-        <v>477860.0</v>
+        <v>477860</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>25</v>
@@ -1936,19 +2267,19 @@
         <v>28</v>
       </c>
       <c r="H22" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I22" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J22" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K22" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L22" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>26</v>
@@ -1957,7 +2288,7 @@
         <v>29</v>
       </c>
       <c r="O22" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>30</v>
@@ -1975,10 +2306,10 @@
         <v>33</v>
       </c>
       <c r="U22" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>35</v>
@@ -1987,15 +2318,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="15">
       <c r="A23" s="3">
-        <v>9.2514196E7</v>
+        <v>92514196</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="3">
-        <v>484036.0</v>
+        <v>484036</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>25</v>
@@ -2010,19 +2341,19 @@
         <v>28</v>
       </c>
       <c r="H23" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I23" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J23" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K23" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L23" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>26</v>
@@ -2031,7 +2362,7 @@
         <v>29</v>
       </c>
       <c r="O23" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>30</v>
@@ -2049,10 +2380,10 @@
         <v>33</v>
       </c>
       <c r="U23" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="W23" s="5" t="s">
         <v>35</v>
@@ -2061,15 +2392,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="15">
       <c r="A24" s="3">
-        <v>9.5341809E7</v>
+        <v>95341809</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="3">
-        <v>484894.0</v>
+        <v>484894</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>25</v>
@@ -2084,19 +2415,19 @@
         <v>28</v>
       </c>
       <c r="H24" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I24" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J24" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K24" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L24" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>26</v>
@@ -2105,7 +2436,7 @@
         <v>39</v>
       </c>
       <c r="O24" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>30</v>
@@ -2123,10 +2454,10 @@
         <v>33</v>
       </c>
       <c r="U24" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="W24" s="5" t="s">
         <v>35</v>
@@ -2135,15 +2466,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" ht="15">
       <c r="A25" s="3">
-        <v>9.075227E7</v>
+        <v>90752270</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="3">
-        <v>485537.0</v>
+        <v>485537</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>25</v>
@@ -2158,19 +2489,19 @@
         <v>28</v>
       </c>
       <c r="H25" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I25" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J25" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K25" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L25" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>26</v>
@@ -2179,7 +2510,7 @@
         <v>39</v>
       </c>
       <c r="O25" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>30</v>
@@ -2197,10 +2528,10 @@
         <v>33</v>
       </c>
       <c r="U25" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V25" s="3">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>35</v>
@@ -2209,15 +2540,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="15">
       <c r="A26" s="3">
-        <v>9.0964558E7</v>
+        <v>90964558</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="3">
-        <v>486361.0</v>
+        <v>486361</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>25</v>
@@ -2232,19 +2563,19 @@
         <v>28</v>
       </c>
       <c r="H26" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I26" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J26" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K26" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L26" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>26</v>
@@ -2253,7 +2584,7 @@
         <v>39</v>
       </c>
       <c r="O26" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>30</v>
@@ -2271,10 +2602,10 @@
         <v>33</v>
       </c>
       <c r="U26" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>35</v>
@@ -2284,24 +2615,25 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -2318,15 +2650,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="3">
-        <v>45720.0</v>
+        <v>45720</v>
       </c>
       <c r="B2" s="6">
-        <v>1.5459557E7</v>
+        <v>15459557</v>
       </c>
       <c r="C2" s="6">
-        <v>2.01565006E8</v>
+        <v>201565006</v>
       </c>
       <c r="D2" s="3">
         <v>320.75</v>
@@ -2335,15 +2667,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="3">
-        <v>65884.0</v>
+        <v>65884</v>
       </c>
       <c r="B3" s="6">
-        <v>1.5690142E7</v>
+        <v>15690142</v>
       </c>
       <c r="C3" s="6">
-        <v>2.02092748E8</v>
+        <v>202092748</v>
       </c>
       <c r="D3" s="3">
         <v>282.05</v>
@@ -2352,32 +2684,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="3">
-        <v>72886.0</v>
+        <v>72886</v>
       </c>
       <c r="B4" s="6">
-        <v>1.5690558E7</v>
+        <v>15690558</v>
       </c>
       <c r="C4" s="6">
-        <v>2.01610923E8</v>
+        <v>201610923</v>
       </c>
       <c r="D4" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="3">
-        <v>137990.0</v>
+        <v>137990</v>
       </c>
       <c r="B5" s="6">
-        <v>1.9706429E7</v>
+        <v>19706429</v>
       </c>
       <c r="C5" s="6">
-        <v>2.02140143E8</v>
+        <v>202140143</v>
       </c>
       <c r="D5" s="3">
         <v>780.25</v>
@@ -2386,49 +2718,49 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="3">
-        <v>146017.0</v>
+        <v>146017</v>
       </c>
       <c r="B6" s="6">
-        <v>1.9507427E7</v>
+        <v>19507427</v>
       </c>
       <c r="C6" s="6">
-        <v>2.02117339E8</v>
+        <v>202117339</v>
       </c>
       <c r="D6" s="3">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="3">
-        <v>152133.0</v>
+        <v>152133</v>
       </c>
       <c r="B7" s="6">
-        <v>1.9824319E7</v>
+        <v>19824319</v>
       </c>
       <c r="C7" s="6">
-        <v>2.02161855E8</v>
+        <v>202161855</v>
       </c>
       <c r="D7" s="3">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="3">
-        <v>183329.0</v>
+        <v>183329</v>
       </c>
       <c r="B8" s="6">
-        <v>2.416279E7</v>
+        <v>24162790</v>
       </c>
       <c r="C8" s="6">
-        <v>2.21411099E8</v>
+        <v>221411099</v>
       </c>
       <c r="D8" s="3">
         <v>463.83</v>
@@ -2437,66 +2769,66 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="3">
-        <v>183335.0</v>
+        <v>183335</v>
       </c>
       <c r="B9" s="6">
-        <v>2.4162799E7</v>
+        <v>24162799</v>
       </c>
       <c r="C9" s="6">
-        <v>2.16606104E8</v>
+        <v>216606104</v>
       </c>
       <c r="D9" s="3">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="3">
-        <v>183374.0</v>
+        <v>183374</v>
       </c>
       <c r="B10" s="6">
-        <v>2.4163178E7</v>
+        <v>24163178</v>
       </c>
       <c r="C10" s="6">
-        <v>2.15706191E8</v>
+        <v>215706191</v>
       </c>
       <c r="D10" s="3">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="3">
-        <v>259380.0</v>
+        <v>259380</v>
       </c>
       <c r="B11" s="6">
-        <v>4.5762475E7</v>
+        <v>45762475</v>
       </c>
       <c r="C11" s="6">
-        <v>2.17629448E8</v>
+        <v>217629448</v>
       </c>
       <c r="D11" s="3">
-        <v>597.58</v>
+        <v>597.58000000000004</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="3">
-        <v>292306.0</v>
+        <v>292306</v>
       </c>
       <c r="B12" s="6">
-        <v>8.9929261E7</v>
+        <v>89929261</v>
       </c>
       <c r="C12" s="6">
-        <v>3.21507773E8</v>
+        <v>321507773</v>
       </c>
       <c r="D12" s="3">
         <v>970.22</v>
@@ -2505,66 +2837,66 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="3">
-        <v>315121.0</v>
+        <v>315121</v>
       </c>
       <c r="B13" s="6">
-        <v>4.229188E7</v>
+        <v>42291880</v>
       </c>
       <c r="C13" s="6">
-        <v>2.32551376E8</v>
+        <v>232551376</v>
       </c>
       <c r="D13" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="3">
-        <v>335906.0</v>
+        <v>335906</v>
       </c>
       <c r="B14" s="6">
-        <v>4.608827E7</v>
+        <v>46088270</v>
       </c>
       <c r="C14" s="6">
-        <v>2.19142712E8</v>
+        <v>219142712</v>
       </c>
       <c r="D14" s="3">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="3">
-        <v>338158.0</v>
+        <v>338158</v>
       </c>
       <c r="B15" s="6">
-        <v>5.0681502E7</v>
+        <v>50681502</v>
       </c>
       <c r="C15" s="6">
-        <v>2.28022853E8</v>
+        <v>228022853</v>
       </c>
       <c r="D15" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="3">
-        <v>454805.0</v>
+        <v>454805</v>
       </c>
       <c r="B16" s="6">
-        <v>5.3855651E7</v>
+        <v>53855651</v>
       </c>
       <c r="C16" s="6">
-        <v>2.32545692E8</v>
+        <v>232545692</v>
       </c>
       <c r="D16" s="3">
         <v>390.64</v>
@@ -2573,49 +2905,49 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="3">
-        <v>459350.0</v>
+        <v>459350</v>
       </c>
       <c r="B17" s="6">
-        <v>5.8985484E7</v>
+        <v>58985484</v>
       </c>
       <c r="C17" s="6">
-        <v>2.32863118E8</v>
+        <v>232863118</v>
       </c>
       <c r="D17" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="3">
-        <v>460641.0</v>
+        <v>460641</v>
       </c>
       <c r="B18" s="6">
-        <v>8.9929774E7</v>
+        <v>89929774</v>
       </c>
       <c r="C18" s="6">
-        <v>3.21507862E8</v>
+        <v>321507862</v>
       </c>
       <c r="D18" s="3">
-        <v>646.0</v>
+        <v>646</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="3">
-        <v>465222.0</v>
+        <v>465222</v>
       </c>
       <c r="B19" s="6">
-        <v>6.860372E7</v>
+        <v>68603720</v>
       </c>
       <c r="C19" s="6">
-        <v>3.14329078E8</v>
+        <v>314329078</v>
       </c>
       <c r="D19" s="3">
         <v>850.38</v>
@@ -2624,32 +2956,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="15">
       <c r="A20" s="3">
-        <v>468344.0</v>
+        <v>468344</v>
       </c>
       <c r="B20" s="6">
-        <v>7.2501222E7</v>
+        <v>72501222</v>
       </c>
       <c r="C20" s="6">
-        <v>3.15765822E8</v>
+        <v>315765822</v>
       </c>
       <c r="D20" s="3">
-        <v>489.0</v>
+        <v>489</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="15">
       <c r="A21" s="3">
-        <v>476190.0</v>
+        <v>476190</v>
       </c>
       <c r="B21" s="6">
-        <v>3.8942528E7</v>
+        <v>38942528</v>
       </c>
       <c r="C21" s="6">
-        <v>3.21655346E8</v>
+        <v>321655346</v>
       </c>
       <c r="D21" s="3">
         <v>772.37</v>
@@ -2658,32 +2990,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15">
       <c r="A22" s="3">
-        <v>477860.0</v>
+        <v>477860</v>
       </c>
       <c r="B22" s="6">
-        <v>8.9441822E7</v>
+        <v>89441822</v>
       </c>
       <c r="C22" s="6">
-        <v>3.21306606E8</v>
+        <v>321306606</v>
       </c>
       <c r="D22" s="3">
-        <v>325.85</v>
+        <v>325.85000000000002</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="15">
       <c r="A23" s="3">
-        <v>484036.0</v>
+        <v>484036</v>
       </c>
       <c r="B23" s="6">
-        <v>9.2514196E7</v>
+        <v>92514196</v>
       </c>
       <c r="C23" s="6">
-        <v>3.21969855E8</v>
+        <v>321969855</v>
       </c>
       <c r="D23" s="3">
         <v>665.92</v>
@@ -2692,15 +3024,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="15">
       <c r="A24" s="3">
-        <v>484894.0</v>
+        <v>484894</v>
       </c>
       <c r="B24" s="6">
-        <v>9.5341809E7</v>
+        <v>95341809</v>
       </c>
       <c r="C24" s="6">
-        <v>3.22507028E8</v>
+        <v>322507028</v>
       </c>
       <c r="D24" s="3">
         <v>587.72</v>
@@ -2709,15 +3041,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="3">
-        <v>485537.0</v>
+        <v>485537</v>
       </c>
       <c r="B25" s="6">
-        <v>9.075227E7</v>
+        <v>90752270</v>
       </c>
       <c r="C25" s="6">
-        <v>3.21574869E8</v>
+        <v>321574869</v>
       </c>
       <c r="D25" s="3">
         <v>696.75</v>
@@ -2726,24 +3058,24 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="15">
       <c r="A26" s="3">
-        <v>486361.0</v>
+        <v>486361</v>
       </c>
       <c r="B26" s="6">
-        <v>9.0964558E7</v>
+        <v>90964558</v>
       </c>
       <c r="C26" s="6">
-        <v>3.21638968E8</v>
+        <v>321638968</v>
       </c>
       <c r="D26" s="3">
-        <v>717.0</v>
+        <v>717</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>